--- a/data/output/tables/gasto_publico.xlsx
+++ b/data/output/tables/gasto_publico.xlsx
@@ -428,10 +428,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1945.618562634424</v>
+        <v>1947.076215888769</v>
       </c>
       <c r="C3">
-        <v>15366.49808755094</v>
+        <v>15483.14278166714</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -472,10 +472,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>63559.98553206867</v>
+        <v>63553.25390588718</v>
       </c>
       <c r="C7">
-        <v>60967.93569893802</v>
+        <v>61139.2421164681</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -483,10 +483,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>32202.10636870389</v>
+        <v>28126.42986600651</v>
       </c>
       <c r="C8">
-        <v>198572.9338079545</v>
+        <v>143436.7967121318</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/tables/gasto_publico.xlsx
+++ b/data/output/tables/gasto_publico.xlsx
@@ -22,22 +22,22 @@
     <t>test_rmse</t>
   </si>
   <si>
+    <t>ar</t>
+  </si>
+  <si>
     <t>lr</t>
   </si>
   <si>
-    <t>ar</t>
+    <t>arima</t>
+  </si>
+  <si>
+    <t>knn</t>
+  </si>
+  <si>
+    <t>rf</t>
   </si>
   <si>
     <t>xgb</t>
-  </si>
-  <si>
-    <t>knn</t>
-  </si>
-  <si>
-    <t>rf</t>
-  </si>
-  <si>
-    <t>arima</t>
   </si>
   <si>
     <t>ann</t>
@@ -417,10 +417,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2407.003495450783</v>
+        <v>3070.81207351412</v>
       </c>
       <c r="C2">
-        <v>15190.08447547815</v>
+        <v>2844.398149924758</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -428,10 +428,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1947.076215888769</v>
+        <v>3954.536921655849</v>
       </c>
       <c r="C3">
-        <v>15483.14278166714</v>
+        <v>5898.398892083052</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -439,10 +439,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>15.7973432841019</v>
+        <v>21865.80366731784</v>
       </c>
       <c r="C4">
-        <v>17233.31934482405</v>
+        <v>11808.72677348711</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -450,10 +450,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>3315.411765226897</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>21539.14543669272</v>
+        <v>23736.34688219855</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -461,10 +461,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>16906.25892012611</v>
+        <v>4000.300294898787</v>
       </c>
       <c r="C6">
-        <v>54008.56995789309</v>
+        <v>26999.9746124778</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -472,10 +472,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>63553.25390588718</v>
+        <v>7668.962828995708</v>
       </c>
       <c r="C7">
-        <v>61139.2421164681</v>
+        <v>42650.10473400458</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -483,10 +483,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>28126.42986600651</v>
+        <v>127314.5774176389</v>
       </c>
       <c r="C8">
-        <v>143436.7967121318</v>
+        <v>180929.3119309368</v>
       </c>
     </row>
   </sheetData>
